--- a/data/datos.xlsx
+++ b/data/datos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\big data\Universidad Jveriana\SEGUNDO SEMESTRE\ANALISIS DE TIEMPO\SeriesTime\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="15530" windowHeight="5270"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="15530" windowHeight="5270"/>
   </bookViews>
   <sheets>
     <sheet name="Cantidad_anual_de_suicidios_rep" sheetId="1" r:id="rId1"/>
@@ -1644,7 +1644,7 @@
   <dimension ref="A1:J2251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection sqref="A1:J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/datos.xlsx
+++ b/data/datos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="15530" windowHeight="5270"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="15530" windowHeight="5270"/>
   </bookViews>
   <sheets>
     <sheet name="Cantidad_anual_de_suicidios_rep" sheetId="1" r:id="rId1"/>
@@ -1643,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J73"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/datos.xlsx
+++ b/data/datos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="15530" windowHeight="5270"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="15530" windowHeight="5270"/>
   </bookViews>
   <sheets>
     <sheet name="Cantidad_anual_de_suicidios_rep" sheetId="1" r:id="rId1"/>
@@ -1643,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="E194" sqref="E194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
